--- a/artfynd/A 28671-2025 artfynd.xlsx
+++ b/artfynd/A 28671-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2951,6 +2951,116 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131219383</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Bjusan, Dlr</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>516893</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6705745</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Borlänge</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Stora Tuna</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Grov äldre tall. 10 meter upp, ovalt hål, cirka 7 cm stort.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Anna-Lena Thommson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
